--- a/Week 2/Assessment/StudentsPerformance.xlsx
+++ b/Week 2/Assessment/StudentsPerformance.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaye\OneDrive\Documents\GitHub\IT365\Week 2\Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F08E637D-67A0-43EF-8CAB-E0A345BC9277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43C2136-DDC7-4746-89BA-6A31B2A976AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-24120" yWindow="3000" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StudentsPerformance" sheetId="1" r:id="rId1"/>
     <sheet name="Assessment" sheetId="3" r:id="rId2"/>
     <sheet name="Previously Submitted" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5062" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5071" uniqueCount="44">
   <si>
     <t>gender</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Sum of math score</t>
-  </si>
-  <si>
     <t>2K</t>
   </si>
   <si>
@@ -149,11 +146,23 @@
   <si>
     <t>mao ni akong na pass ma'am katong na delete ang data</t>
   </si>
+  <si>
+    <t>1. Number of gender in each race using the math score</t>
+  </si>
+  <si>
+    <t>2. Frequency Distribution of Race</t>
+  </si>
+  <si>
+    <t>3. Frequency Distribution of math scores</t>
+  </si>
+  <si>
+    <t>FREQ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -838,6 +847,614 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -854,7 +1471,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>female</c:v>
+                  <c:v>group A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -871,47 +1488,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Assessment!$A$3:$A$8</c:f>
+              <c:f>Assessment!$A$3:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>group A</c:v>
+                  <c:v>female</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>group B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>group C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>group D</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>group E</c:v>
+                  <c:v>male</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Assessment!$B$3:$B$8</c:f>
+              <c:f>Assessment!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2107</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6386</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11166</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8417</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4886</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -931,7 +1530,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>male</c:v>
+                  <c:v>group B</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -948,47 +1547,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Assessment!$A$3:$A$8</c:f>
+              <c:f>Assessment!$A$3:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>group A</c:v>
+                  <c:v>female</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>group B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>group C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>group D</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>group E</c:v>
+                  <c:v>male</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Assessment!$C$3:$C$8</c:f>
+              <c:f>Assessment!$C$3:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3378</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5670</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9398</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9232</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5449</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -996,6 +1577,183 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AA74-4DC7-A916-91F93AA3C74C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Assessment!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>group C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Assessment!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>female</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>male</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Assessment!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-047F-459F-B711-6F2B40407B3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Assessment!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>group D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Assessment!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>female</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>male</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Assessment!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-047F-459F-B711-6F2B40407B3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Assessment!$F$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>group E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Assessment!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>female</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>male</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Assessment!$F$3:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-047F-459F-B711-6F2B40407B3F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4125,16 +4883,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4235,7 +4993,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaye" refreshedDate="44442.445882870372" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="1000">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kaye" refreshedDate="44442.445882870372" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="1000" xr:uid="{00000000-000A-0000-FFFF-FFFF06000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1001" sheet="StudentsPerformance"/>
   </cacheSource>
@@ -14370,7 +15128,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A33:B115" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -14748,7 +15506,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A17:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -14822,17 +15580,17 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:G5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisCol" showAll="0">
       <items count="6">
         <item x="2"/>
         <item x="0"/>
@@ -14850,9 +15608,23 @@
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
     <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
+  </colFields>
+  <colItems count="6">
     <i>
       <x/>
     </i>
@@ -14871,25 +15643,11 @@
     <i t="grand">
       <x/>
     </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of math score" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Count of math score" fld="5" subtotal="count" baseField="1" baseItem="3"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="15">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -14904,6 +15662,186 @@
         <references count="1">
           <reference field="0" count="1" selected="0">
             <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -15217,14 +16155,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1001"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15250,7 +16190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -15276,7 +16216,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -15301,8 +16241,14 @@
       <c r="H3">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -15327,8 +16273,15 @@
       <c r="H4">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(B2:$B$1001, J4)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -15353,8 +16306,15 @@
       <c r="H5">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(B3:$B$1001, J5)</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -15379,8 +16339,15 @@
       <c r="H6">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <f>COUNTIF(B4:$B$1001, J6)</f>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -15405,8 +16372,15 @@
       <c r="H7">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7">
+        <f>COUNTIF(B5:$B$1001, J7)</f>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -15431,8 +16405,15 @@
       <c r="H8">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <f>COUNTIF(B6:$B$1001, J8)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -15458,7 +16439,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -15484,7 +16465,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -15510,7 +16491,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -15536,7 +16517,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -15562,7 +16543,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -15588,7 +16569,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -15614,7 +16595,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -41256,125 +42237,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>2107</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3">
-        <v>3378</v>
+        <v>104</v>
       </c>
       <c r="D3" s="3">
-        <v>5485</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="E3" s="3">
+        <v>129</v>
+      </c>
+      <c r="F3" s="3">
+        <v>69</v>
+      </c>
+      <c r="G3" s="3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3">
-        <v>6386</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3">
-        <v>5670</v>
+        <v>86</v>
       </c>
       <c r="D4" s="3">
-        <v>12056</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="E4" s="3">
+        <v>133</v>
+      </c>
+      <c r="F4" s="3">
+        <v>71</v>
+      </c>
+      <c r="G4" s="3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3">
-        <v>11166</v>
+        <v>89</v>
       </c>
       <c r="C5" s="3">
-        <v>9398</v>
+        <v>190</v>
       </c>
       <c r="D5" s="3">
-        <v>20564</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3">
-        <v>8417</v>
-      </c>
-      <c r="C6" s="3">
-        <v>9232</v>
-      </c>
-      <c r="D6" s="3">
-        <v>17649</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="E5" s="3">
+        <v>262</v>
+      </c>
+      <c r="F5" s="3">
+        <v>140</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4886</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5449</v>
-      </c>
-      <c r="D7" s="3">
-        <v>10335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="3">
-        <v>32962</v>
-      </c>
-      <c r="C8" s="3">
-        <v>33127</v>
-      </c>
-      <c r="D8" s="3">
-        <v>66089</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -41433,6 +42427,11 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
@@ -41561,10 +42560,10 @@
         <v>2</v>
       </c>
       <c r="F48" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" t="s">
         <v>36</v>
-      </c>
-      <c r="G48" t="s">
-        <v>37</v>
       </c>
       <c r="H48">
         <v>1000</v>
@@ -41597,7 +42596,7 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <f t="shared" ref="F50:F59" si="0">POWER(2,E50)</f>
+        <f t="shared" ref="F50:F58" si="0">POWER(2,E50)</f>
         <v>4</v>
       </c>
     </row>
@@ -41721,7 +42720,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="1"/>
@@ -41755,7 +42754,7 @@
         <v>11</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" t="s">
@@ -42342,10 +43341,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -42392,7 +43391,7 @@
         <v>5449</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
